--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67593F92-A4A7-4A5E-874F-ACE54F90AA44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A191CD29-2CC0-4C34-A95B-63828CE55FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Start Date</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>Development lifecycle (Covering Hybrid/SAFE, Development expectations unit tests, integration tests, builds, ownership)</t>
+  </si>
+  <si>
+    <t>Basics, Normalization, SQL(DDL, DML, TCL, DRL, DCL) Commands</t>
+  </si>
+  <si>
+    <t>Select statement with all clauses, Set Operators, Predefined functions, Joins, Indexs, Views</t>
+  </si>
+  <si>
+    <t>PL/SQL Basics, Cursors, Procedures, Functions</t>
+  </si>
+  <si>
+    <t>Triggers, Fundas, Controll Statements, Arrays, Strings</t>
+  </si>
+  <si>
+    <t>Arrays, Strings, OOPS Concept</t>
   </si>
 </sst>
 </file>
@@ -666,7 +681,7 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +693,7 @@
     <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -758,10 +773,14 @@
       <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45524</v>
       </c>
@@ -782,8 +801,12 @@
         <v>13</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -806,8 +829,12 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -832,10 +859,14 @@
       <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45527</v>
       </c>
@@ -858,8 +889,12 @@
       <c r="G10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A191CD29-2CC0-4C34-A95B-63828CE55FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D673C97-8BDD-4092-A170-0BF05732EA17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Arrays, Strings, OOPS Concept</t>
+  </si>
+  <si>
+    <t>OOPS Concepts, Exception Handling, Collections</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +931,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45530</v>
       </c>
@@ -949,8 +952,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D673C97-8BDD-4092-A170-0BF05732EA17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA5A649-2D7B-4725-8967-BBD1A59148CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -684,7 +684,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,8 +983,12 @@
         <v>19</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA5A649-2D7B-4725-8967-BBD1A59148CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C43A090-6FEF-4495-9F56-75276EEA1DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -687,7 +687,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1011,12 @@
         <v>61</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C43A090-6FEF-4495-9F56-75276EEA1DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA7B4B-5F75-418F-A742-6E2903D653C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -684,10 +684,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,8 +1039,12 @@
         <v>20</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA7B4B-5F75-418F-A742-6E2903D653C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D47B70-FCC7-4197-BF58-B81CBFE2CEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -687,7 +687,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45534</v>
       </c>
@@ -1067,8 +1067,12 @@
         <v>21</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D47B70-FCC7-4197-BF58-B81CBFE2CEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E495CE6-AD57-4E25-9626-16CE83B565A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Start Date</t>
   </si>
@@ -1127,8 +1127,12 @@
         <v>23</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E495CE6-AD57-4E25-9626-16CE83B565A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EC695-76FB-40D0-9825-8BEA684C5BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Start Date</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>OOPS Concepts, Exception Handling, Collections</t>
+  </si>
+  <si>
+    <t>Auto-wiring, JDBC, ..), Java Servlets, Java Assessments</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,8 +1158,12 @@
         <v>25</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EC695-76FB-40D0-9825-8BEA684C5BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91DBF2C-FD7F-4ED2-9D49-A60EFC3B404C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Start Date</t>
   </si>
@@ -687,10 +687,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,8 +1186,12 @@
         <v>26</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91DBF2C-FD7F-4ED2-9D49-A60EFC3B404C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B1C8D-186E-488D-854C-7D5B71836E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Start Date</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Auto-wiring, JDBC, ..), Java Servlets, Java Assessments</t>
+  </si>
+  <si>
+    <t>Spring boot MVC</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,8 +1217,12 @@
         <v>27</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="10">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1238,8 +1245,12 @@
         <v>28</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B1C8D-186E-488D-854C-7D5B71836E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F310EF4E-0093-4FCB-A1D4-DBF100C56F32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>Start Date</t>
   </si>
@@ -693,7 +693,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,8 +1305,12 @@
         <v>29</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F310EF4E-0093-4FCB-A1D4-DBF100C56F32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD21D99-6012-48EA-8A17-AF64E0A164FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Start Date</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Spring boot MVC</t>
+  </si>
+  <si>
+    <t>Swagger, RAML, Spring security</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,8 +1336,12 @@
         <v>30</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD21D99-6012-48EA-8A17-AF64E0A164FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A3ABF-A59D-40D2-868D-9F975D959D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Start Date</t>
   </si>
@@ -693,10 +693,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45546</v>
       </c>
@@ -1366,8 +1366,12 @@
       <c r="G29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A3ABF-A59D-40D2-868D-9F975D959D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F37399-8B84-4393-B167-23CD16607CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Start Date</t>
   </si>
@@ -693,10 +693,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,8 +1394,12 @@
         <v>33</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="10">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F37399-8B84-4393-B167-23CD16607CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C5D3D-0ABA-4092-8D99-BECED9DE8C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C5D3D-0ABA-4092-8D99-BECED9DE8C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFF9D1-D82E-4C66-9B61-E7A2437E8CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Start Date</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>Swagger, RAML, Spring security</t>
+  </si>
+  <si>
+    <t>Arrays, Control Statements, Functions, Substitutions. 
+Basics of prog., control statements, arrays</t>
   </si>
 </sst>
 </file>
@@ -693,10 +697,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45547</v>
       </c>
@@ -1395,13 +1399,13 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I30" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45548</v>
       </c>
@@ -1422,8 +1426,12 @@
         <v>35</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFF9D1-D82E-4C66-9B61-E7A2437E8CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB6EB8-92C8-4F37-BF43-4C3BC62EBE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>Start Date</t>
   </si>
@@ -700,7 +700,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1465,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45551</v>
       </c>
@@ -1488,8 +1488,12 @@
       <c r="G34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="10">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB6EB8-92C8-4F37-BF43-4C3BC62EBE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787107F-37DA-4312-BEDF-F142DCA4C02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>Start Date</t>
   </si>
@@ -700,7 +700,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45552</v>
       </c>
@@ -1516,8 +1516,12 @@
         <v>39</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="10">
+        <v>22</v>
+      </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787107F-37DA-4312-BEDF-F142DCA4C02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6188EE-8F7E-49EB-9258-319272EE21F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>Start Date</t>
   </si>
@@ -260,6 +260,12 @@
   <si>
     <t>Arrays, Control Statements, Functions, Substitutions. 
 Basics of prog., control statements, arrays</t>
+  </si>
+  <si>
+    <t>Lists, Forms, Routers, Hooks, Redux</t>
+  </si>
+  <si>
+    <t>Classes, Props, Events, CSS Styling, Axios to access rest api, jwt, Spring Email</t>
   </si>
 </sst>
 </file>
@@ -697,10 +703,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1530,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45553</v>
       </c>
@@ -1545,8 +1551,12 @@
         <v>42</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="10">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -1571,8 +1581,12 @@
       <c r="G37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
+      <c r="H37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="10">
+        <v>24</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6188EE-8F7E-49EB-9258-319272EE21F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689A9C5-C67E-49BD-BAAB-4C664252D31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Start Date</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Classes, Props, Events, CSS Styling, Axios to access rest api, jwt, Spring Email</t>
+  </si>
+  <si>
+    <t>ReactJs Formik &amp; Yup, Python</t>
   </si>
 </sst>
 </file>
@@ -703,10 +706,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,8 +1612,12 @@
         <v>62</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
+      <c r="H38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689A9C5-C67E-49BD-BAAB-4C664252D31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B8E9E-E769-4990-8B96-899DD548C3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Start Date</t>
   </si>
@@ -706,10 +706,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,7 +1652,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>45558</v>
       </c>
@@ -1675,8 +1675,12 @@
       <c r="G41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
+      <c r="H41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="10">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A42" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B8E9E-E769-4990-8B96-899DD548C3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5550719-494B-428D-90EE-7862D25EB7F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Start Date</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>ReactJs Formik &amp; Yup, Python</t>
+  </si>
+  <si>
+    <t>SonarQube, Chef/Pupet, Docker</t>
   </si>
 </sst>
 </file>
@@ -706,10 +709,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,8 +1708,12 @@
       <c r="G42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="10"/>
+      <c r="H42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="10">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5550719-494B-428D-90EE-7862D25EB7F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E90B79-BE03-4F47-8345-8A5D1D4C6306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Start Date</t>
   </si>
@@ -185,9 +185,6 @@
     <t>AWS</t>
   </si>
   <si>
-    <t>What is Cloud Computing, Types of Clouds, Advantages and Disadvantages, Introduction to AWS, EC2, Auto Scaling, Lambda, VPC, Routing, Direct Connect, Storage Gateway, ..</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -272,6 +269,15 @@
   </si>
   <si>
     <t>SonarQube, Chef/Pupet, Docker</t>
+  </si>
+  <si>
+    <t>What is Cloud Computing, Types of Clouds, Advantages and Disadvantages, Introduction to AWS</t>
+  </si>
+  <si>
+    <t>What is a pro c, complitation process, Directory Structure, Restrictions</t>
+  </si>
+  <si>
+    <t>Embedded SQL Statements, Pro C Synatax, Transactions, Error Handling</t>
   </si>
 </sst>
 </file>
@@ -709,10 +715,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
@@ -833,7 +839,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10">
         <v>2</v>
@@ -861,7 +867,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10">
         <v>3</v>
@@ -888,10 +894,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="10">
         <v>4</v>
@@ -918,10 +924,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="10">
         <v>5</v>
@@ -981,7 +987,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="10">
         <v>6</v>
@@ -1033,11 +1039,11 @@
         <v>15</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="10">
         <v>8</v>
@@ -1181,7 +1187,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="10">
         <v>12</v>
@@ -1265,7 +1271,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="10">
         <v>15</v>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="10">
         <v>17</v>
@@ -1380,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>32</v>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I30" s="10">
         <v>19</v>
@@ -1498,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>39</v>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I36" s="10">
         <v>23</v>
@@ -1582,13 +1588,13 @@
         <v>41</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37" s="10">
         <v>24</v>
@@ -1609,14 +1615,14 @@
         <v>25</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I38" s="10">
         <v>25</v>
@@ -1709,13 +1715,13 @@
         <v>47</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>45560</v>
       </c>
@@ -1738,10 +1744,14 @@
       <c r="G43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45561</v>
       </c>
@@ -1756,16 +1766,20 @@
         <v>29</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="H44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45562</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
@@ -1839,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
@@ -1860,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
@@ -1900,10 +1914,10 @@
         <v>33</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
@@ -1924,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
@@ -1980,10 +1994,10 @@
         <v>35</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8"/>
@@ -2007,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="8"/>
@@ -2031,7 +2045,7 @@
         <v>37</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
@@ -2052,10 +2066,10 @@
         <v>38</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8"/>

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E90B79-BE03-4F47-8345-8A5D1D4C6306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B780EC5-FCD9-4923-97E9-4CA083013C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>Start Date</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Embedded SQL Statements, Pro C Synatax, Transactions, Error Handling</t>
+  </si>
+  <si>
+    <t>EC2, ECS, Elastic beanstalk with RDS</t>
   </si>
 </sst>
 </file>
@@ -715,10 +718,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,8 +1803,12 @@
         <v>79</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="10"/>
+      <c r="H45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B780EC5-FCD9-4923-97E9-4CA083013C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C4ED0-9D29-4757-9BDB-45D4AD7B3287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Start Date</t>
   </si>
@@ -721,7 +721,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1842,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45565</v>
       </c>
@@ -1863,8 +1863,12 @@
         <v>52</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="10">
+        <v>31</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C4ED0-9D29-4757-9BDB-45D4AD7B3287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCFE1E4-AE54-4DB0-A14E-ADE39824933A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>Start Date</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>EC2, ECS, Elastic beanstalk with RDS</t>
+  </si>
+  <si>
+    <t>Project - Rest APIs completion. Test them using thunder client and Swagger</t>
+  </si>
+  <si>
+    <t>Today - Project - Frontend to be completed</t>
   </si>
 </sst>
 </file>
@@ -718,10 +724,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45566</v>
       </c>
@@ -1891,8 +1897,12 @@
         <v>51</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="10">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
@@ -1910,7 +1920,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45568</v>
       </c>
@@ -1931,8 +1941,12 @@
         <v>51</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="10"/>
+      <c r="H51" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="10">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCFE1E4-AE54-4DB0-A14E-ADE39824933A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B86BF6-4A0B-4BB1-9E71-FEF9DCE62A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>Start Date</t>
   </si>
@@ -281,12 +281,6 @@
   </si>
   <si>
     <t>EC2, ECS, Elastic beanstalk with RDS</t>
-  </si>
-  <si>
-    <t>Project - Rest APIs completion. Test them using thunder client and Swagger</t>
-  </si>
-  <si>
-    <t>Today - Project - Frontend to be completed</t>
   </si>
 </sst>
 </file>
@@ -727,7 +721,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,7 +1870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45566</v>
       </c>
@@ -1898,7 +1892,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="I49" s="10">
         <v>32</v>
@@ -1920,7 +1914,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45568</v>
       </c>
@@ -1942,7 +1936,7 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I51" s="10">
         <v>33</v>
@@ -1969,8 +1963,12 @@
         <v>51</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="10">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
@@ -2025,8 +2023,12 @@
         <v>51</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="10"/>
+      <c r="H55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="10">
+        <v>35</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B86BF6-4A0B-4BB1-9E71-FEF9DCE62A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B858B-ABE6-4B7E-A993-FB81065C4C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Start Date</t>
   </si>
@@ -721,7 +721,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>45573</v>
       </c>
@@ -2051,10 +2051,14 @@
         <v>80</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="H56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>45574</v>
       </c>
@@ -2075,8 +2079,12 @@
         <v>81</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="10"/>
+      <c r="H57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="10">
+        <v>37</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A58" s="5">

--- a/TOC_Jag_38_days_2024_v1.xlsx
+++ b/TOC_Jag_38_days_2024_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B858B-ABE6-4B7E-A993-FB81065C4C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBBC15-13F3-4FF4-A59D-19BD0E03F63B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9CF50B5-DD32-4619-8BBA-FB7E01FC44F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Start Date</t>
   </si>
@@ -718,10 +718,10 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,7 +2086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>45575</v>
       </c>
@@ -2107,8 +2107,12 @@
         <v>64</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="10">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
